--- a/FINAL DOCUMENT - HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm 4.11.23.xlsx
+++ b/FINAL DOCUMENT - HNELHD PGY1 and 2 Allocations Mapping 2024 Automated Algorithm 4.11.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\term-allocations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AEE4CE-1750-4F9F-8277-DD9DA0A39F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA1F27-C31F-42C5-99B2-9BD749C73DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="870" windowWidth="27300" windowHeight="19950" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="48900" windowHeight="19950" activeTab="1" xr2:uid="{38A017DF-DBEE-4E28-B287-B117EED1A5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined sheet" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="155">
   <si>
     <t>PGY2 Only</t>
   </si>
@@ -85,9 +85,6 @@
     <t>ARRH Paediatrics (PGY2)</t>
   </si>
   <si>
-    <t>ARRH Surgery - Orthopaedics  (PGY1/2)</t>
-  </si>
-  <si>
     <t>Team Based</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>BDH Sub-Acute General Medicine (Team 5) (PGY1/2)</t>
   </si>
   <si>
-    <t>Emergency medicine</t>
-  </si>
-  <si>
     <t>CMN Medicine - Cardiology (PGY1/2)</t>
   </si>
   <si>
@@ -181,18 +175,12 @@
     <t>JHH Medicine - Rheumatology (PGY1/2)</t>
   </si>
   <si>
-    <t>Obstetrics and gynaecology</t>
-  </si>
-  <si>
     <t>JHH Surgery - Ear, Nose and Throat (ENT) (PGY1/2)</t>
   </si>
   <si>
     <t>JHH Surgery - Oral Maxillofacial (OMF) (PGY1/2)</t>
   </si>
   <si>
-    <t>JHH Surgery - Paediatric Orthopaedics (PGY2)</t>
-  </si>
-  <si>
     <t>JHH Surgery - Paediatrics (PGY2)</t>
   </si>
   <si>
@@ -274,15 +262,6 @@
     <t>JHH Medicine - Cardiology (PGY1/2)</t>
   </si>
   <si>
-    <t>JHH Surgery - Orthopaedics (Team 3) (PGY2)</t>
-  </si>
-  <si>
-    <t>JHH Surgery - Orthopaedics (Team 6) (PGY1/2)</t>
-  </si>
-  <si>
-    <t>JHH Surgery - Orthopaedics (PGY1/2)</t>
-  </si>
-  <si>
     <t>MH General Surgery (PGY1/2)</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>Paediatrics</t>
   </si>
   <si>
-    <t>Orthopaedics</t>
-  </si>
-  <si>
     <t>Palliative Care</t>
   </si>
   <si>
@@ -445,9 +421,6 @@
     <t>Paediatric Surgery</t>
   </si>
   <si>
-    <t>Vascular surgery</t>
-  </si>
-  <si>
     <t>CMN Relief (PGY1/2)</t>
   </si>
   <si>
@@ -466,21 +439,9 @@
     <t>TRRH Surgery C (PGY1/2)</t>
   </si>
   <si>
-    <t>Surgery - General Surgery</t>
-  </si>
-  <si>
-    <t>Surgery - Orthopaedic surgery</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRRH General Medicine 08 (PGY1/2) </t>
   </si>
   <si>
-    <t>Physician - General Medicine</t>
-  </si>
-  <si>
-    <t>TRRH Surgery - Orthopaedics 02 (PGY1/2)</t>
-  </si>
-  <si>
     <t>TRRH Emergency (PGY2)</t>
   </si>
   <si>
@@ -490,9 +451,6 @@
     <t>Maximum allocated PGY2 in 2024</t>
   </si>
   <si>
-    <t>Maximum allocated PGY1 in 2024</t>
-  </si>
-  <si>
     <t>Term Name</t>
   </si>
   <si>
@@ -524,6 +482,30 @@
   </si>
   <si>
     <t>PGY2 Term 5 Allocation</t>
+  </si>
+  <si>
+    <t>Obstetrics and Gynaecology</t>
+  </si>
+  <si>
+    <t>ARRH Surgery - Orthopaedic Surgery  (PGY1/2)</t>
+  </si>
+  <si>
+    <t>JHH Surgery - Orthopaedic Surgery (PGY1/2)</t>
+  </si>
+  <si>
+    <t>JHH Surgery - Orthopaedic Surgery (Team 6) (PGY1/2)</t>
+  </si>
+  <si>
+    <t>JHH Surgery - Orthopaedic Surgery (Team 3) (PGY2)</t>
+  </si>
+  <si>
+    <t>JHH Surgery - Paediatric Orthopaedic Surgery (PGY2)</t>
+  </si>
+  <si>
+    <t>TRRH Surgery - Orthopaedic Surgery 02 (PGY1/2)</t>
+  </si>
+  <si>
+    <t>Vascular Surgery</t>
   </si>
 </sst>
 </file>
@@ -593,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -614,23 +596,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="122">
     <dxf>
       <fill>
         <patternFill>
@@ -648,7 +624,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -662,6 +638,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -669,7 +659,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -698,6 +716,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -767,48 +806,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
@@ -830,21 +827,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -852,20 +835,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,7 +890,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -950,6 +947,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1054,7 +1093,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3886CC"/>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1110,35 +1184,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF66CCFF"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0086EA"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66CCFF"/>
+          <bgColor rgb="FF00CC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1152,56 +1212,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF66CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0086EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3FAEE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1244,6 +1255,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0086EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3FAEE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3886CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1334,7 +1373,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3886CC"/>
+          <bgColor rgb="FF0086EA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1348,7 +1387,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0086EA"/>
+          <bgColor rgb="FF3886CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1356,13 +1402,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1734,11 +1773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" sqref="A1:R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,37 +1796,37 @@
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>1</v>
@@ -1796,27 +1835,27 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1855,13 +1894,13 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
@@ -1912,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -1969,16 +2008,16 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
@@ -1990,7 +2029,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2029,13 +2068,13 @@
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
         <v>8</v>
@@ -2047,7 +2086,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2086,13 +2125,13 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
         <v>4</v>
@@ -2104,7 +2143,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2143,16 +2182,16 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
         <v>4</v>
@@ -2164,7 +2203,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2203,13 +2242,13 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
         <v>4</v>
@@ -2221,7 +2260,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2260,16 +2299,16 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R9" t="s">
         <v>8</v>
@@ -2281,7 +2320,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2320,13 +2359,13 @@
         <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
         <v>4</v>
@@ -2338,7 +2377,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2377,13 +2416,13 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
         <v>4</v>
@@ -2395,7 +2434,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2434,16 +2473,16 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R12" t="s">
         <v>4</v>
@@ -2455,7 +2494,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2494,13 +2533,13 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R13" t="s">
         <v>4</v>
@@ -2512,7 +2551,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2551,13 +2590,13 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R14" t="s">
         <v>4</v>
@@ -2569,7 +2608,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2608,13 +2647,13 @@
         <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
         <v>4</v>
@@ -2626,7 +2665,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2665,16 +2704,16 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
         <v>4</v>
@@ -2686,7 +2725,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2725,16 +2764,16 @@
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R17" t="s">
         <v>4</v>
@@ -2746,7 +2785,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2785,16 +2824,16 @@
         <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R18" t="s">
         <v>4</v>
@@ -2806,7 +2845,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2845,16 +2884,16 @@
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R19" t="s">
         <v>4</v>
@@ -2866,7 +2905,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2905,13 +2944,13 @@
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R20" t="s">
         <v>8</v>
@@ -2923,7 +2962,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2959,16 +2998,16 @@
         <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s">
         <v>4</v>
@@ -2980,7 +3019,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3019,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R22" t="s">
         <v>4</v>
@@ -3037,7 +3076,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3076,13 +3115,13 @@
         <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R23" t="s">
         <v>4</v>
@@ -3094,7 +3133,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3133,16 +3172,16 @@
         <v>6</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
@@ -3154,7 +3193,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3193,16 +3232,16 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
         <v>8</v>
@@ -3214,7 +3253,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3250,13 +3289,13 @@
         <v>12</v>
       </c>
       <c r="N26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R26" t="s">
         <v>8</v>
@@ -3268,7 +3307,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3307,13 +3346,13 @@
         <v>12</v>
       </c>
       <c r="N27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
         <v>4</v>
@@ -3325,7 +3364,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3361,13 +3400,13 @@
         <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
@@ -3379,7 +3418,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3418,13 +3457,13 @@
         <v>12</v>
       </c>
       <c r="N29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R29" t="s">
         <v>4</v>
@@ -3436,7 +3475,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3472,13 +3511,13 @@
         <v>6</v>
       </c>
       <c r="N30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R30" t="s">
         <v>4</v>
@@ -3490,7 +3529,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3523,16 +3562,16 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
         <v>11</v>
       </c>
       <c r="Q31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
@@ -3544,7 +3583,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3583,13 +3622,13 @@
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R32" t="s">
         <v>4</v>
@@ -3601,7 +3640,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3640,16 +3679,16 @@
         <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
@@ -3661,7 +3700,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3700,13 +3739,13 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P34" t="s">
         <v>11</v>
       </c>
       <c r="Q34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R34" t="s">
         <v>8</v>
@@ -3718,7 +3757,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -3757,13 +3796,13 @@
         <v>6</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R35" t="s">
         <v>4</v>
@@ -3775,7 +3814,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3808,19 +3847,19 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
         <v>11</v>
       </c>
       <c r="Q36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R36" t="s">
         <v>8</v>
@@ -3832,7 +3871,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -3871,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R37" t="s">
         <v>4</v>
@@ -3889,7 +3928,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3928,16 +3967,16 @@
         <v>6</v>
       </c>
       <c r="N38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R38" t="s">
         <v>8</v>
@@ -3949,7 +3988,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3988,16 +4027,16 @@
         <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R39" t="s">
         <v>4</v>
@@ -4009,7 +4048,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4048,16 +4087,16 @@
         <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R40" t="s">
         <v>4</v>
@@ -4069,7 +4108,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4108,16 +4147,16 @@
         <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="P41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R41" t="s">
         <v>4</v>
@@ -4129,7 +4168,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4168,16 +4207,16 @@
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R42" t="s">
         <v>4</v>
@@ -4189,7 +4228,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4228,16 +4267,16 @@
         <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R43" t="s">
         <v>8</v>
@@ -4249,7 +4288,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -4288,16 +4327,16 @@
         <v>12</v>
       </c>
       <c r="N44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O44" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R44" t="s">
         <v>4</v>
@@ -4309,7 +4348,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4348,16 +4387,16 @@
         <v>6</v>
       </c>
       <c r="N45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R45" t="s">
         <v>4</v>
@@ -4369,7 +4408,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -4408,16 +4447,16 @@
         <v>12</v>
       </c>
       <c r="N46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R46" t="s">
         <v>4</v>
@@ -4429,7 +4468,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4468,16 +4507,16 @@
         <v>6</v>
       </c>
       <c r="N47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O47" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R47" t="s">
         <v>4</v>
@@ -4489,7 +4528,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4528,16 +4567,16 @@
         <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O48" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P48" t="s">
         <v>7</v>
       </c>
       <c r="Q48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R48" t="s">
         <v>4</v>
@@ -4549,7 +4588,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4588,16 +4627,16 @@
         <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R49" t="s">
         <v>4</v>
@@ -4609,7 +4648,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4648,16 +4687,16 @@
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O50" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R50" t="s">
         <v>4</v>
@@ -4669,7 +4708,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -4705,16 +4744,13 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>110</v>
-      </c>
-      <c r="O51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P51" t="s">
         <v>7</v>
       </c>
       <c r="Q51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R51" t="s">
         <v>4</v>
@@ -4726,7 +4762,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -4765,16 +4801,16 @@
         <v>12</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O52" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R52" t="s">
         <v>4</v>
@@ -4786,7 +4822,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4825,16 +4861,16 @@
         <v>12</v>
       </c>
       <c r="N53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O53" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R53" t="s">
         <v>4</v>
@@ -4846,7 +4882,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4885,16 +4921,16 @@
         <v>10</v>
       </c>
       <c r="N54" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O54" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R54" t="s">
         <v>4</v>
@@ -4906,7 +4942,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4945,13 +4981,13 @@
         <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R55" t="s">
         <v>4</v>
@@ -4963,7 +4999,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5002,16 +5038,16 @@
         <v>10</v>
       </c>
       <c r="N56" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O56" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R56" t="s">
         <v>4</v>
@@ -5023,7 +5059,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -5062,13 +5098,13 @@
         <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R57" t="s">
         <v>4</v>
@@ -5080,7 +5116,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5119,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="N58" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R58" t="s">
         <v>4</v>
@@ -5137,7 +5173,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -5176,13 +5212,13 @@
         <v>10</v>
       </c>
       <c r="N59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R59" t="s">
         <v>4</v>
@@ -5194,7 +5230,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5233,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R60" t="s">
         <v>4</v>
@@ -5251,7 +5287,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5290,13 +5326,13 @@
         <v>10</v>
       </c>
       <c r="N61" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R61" t="s">
         <v>8</v>
@@ -5308,7 +5344,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -5347,16 +5383,16 @@
         <v>10</v>
       </c>
       <c r="N62" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O62" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q62" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R62" t="s">
         <v>8</v>
@@ -5368,7 +5404,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5407,16 +5443,16 @@
         <v>10</v>
       </c>
       <c r="N63" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O63" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R63" t="s">
         <v>8</v>
@@ -5428,7 +5464,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -5467,13 +5503,13 @@
         <v>10</v>
       </c>
       <c r="N64" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R64" t="s">
         <v>4</v>
@@ -5485,7 +5521,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5524,13 +5560,13 @@
         <v>10</v>
       </c>
       <c r="N65" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="P65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R65" t="s">
         <v>4</v>
@@ -5542,7 +5578,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -5581,13 +5617,13 @@
         <v>6</v>
       </c>
       <c r="N66" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R66" t="s">
         <v>4</v>
@@ -5599,7 +5635,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5638,16 +5674,16 @@
         <v>12</v>
       </c>
       <c r="N67" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R67" t="s">
         <v>4</v>
@@ -5659,7 +5695,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -5698,13 +5734,13 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="P68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q68" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R68" t="s">
         <v>4</v>
@@ -5716,7 +5752,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -5755,13 +5791,13 @@
         <v>12</v>
       </c>
       <c r="N69" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q69" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R69" t="s">
         <v>4</v>
@@ -5773,7 +5809,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -5812,13 +5848,13 @@
         <v>10</v>
       </c>
       <c r="N70" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R70" t="s">
         <v>4</v>
@@ -5830,7 +5866,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -5866,16 +5902,16 @@
         <v>12</v>
       </c>
       <c r="N71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="O71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q71" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R71" t="s">
         <v>4</v>
@@ -5887,7 +5923,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -5926,16 +5962,13 @@
         <v>6</v>
       </c>
       <c r="N72" t="s">
-        <v>141</v>
-      </c>
-      <c r="O72" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="P72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R72" t="s">
         <v>4</v>
@@ -5947,7 +5980,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -5986,16 +6019,13 @@
         <v>6</v>
       </c>
       <c r="N73" t="s">
-        <v>142</v>
-      </c>
-      <c r="O73" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="P73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R73" t="s">
         <v>4</v>
@@ -6007,7 +6037,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -6046,16 +6076,13 @@
         <v>6</v>
       </c>
       <c r="N74" t="s">
-        <v>144</v>
-      </c>
-      <c r="O74" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R74" t="s">
         <v>4</v>
@@ -6067,7 +6094,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -6106,16 +6133,13 @@
         <v>6</v>
       </c>
       <c r="N75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O75" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="P75" t="s">
         <v>7</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R75" t="s">
         <v>8</v>
@@ -6127,7 +6151,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -6160,16 +6184,16 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P76" t="s">
         <v>7</v>
       </c>
       <c r="Q76" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R76" t="s">
         <v>4</v>
@@ -6181,7 +6205,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -6214,16 +6238,16 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R77" t="s">
         <v>4</v>
@@ -6235,7 +6259,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -6268,16 +6292,16 @@
         <v>17</v>
       </c>
       <c r="N78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R78" t="s">
         <v>4</v>
@@ -6289,7 +6313,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -6322,16 +6346,16 @@
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R79" t="s">
         <v>4</v>
@@ -6343,7 +6367,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -6376,16 +6400,16 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R80" t="s">
         <v>4</v>
@@ -6397,7 +6421,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -6430,16 +6454,16 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q81" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R81" t="s">
         <v>8</v>
@@ -6451,7 +6475,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <f>SUM(B2:B84)</f>
@@ -6504,151 +6528,151 @@
   </protectedRanges>
   <autoFilter ref="A1:R81" xr:uid="{DB37F420-1D0C-4ACF-97D8-CF9D13F91440}"/>
   <conditionalFormatting sqref="A73:A75">
-    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="121" priority="8" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="120" priority="9" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="119" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="118" priority="11" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R8 Q2:Q8 A9:R21 B22:P22 A22:A30 Q22:R30 B23:K24 N23:P24 B25:P30 T72:XFD75 T76:T80 A1:P8 A31:R83">
-    <cfRule type="containsText" dxfId="108" priority="143" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="A1:P8 R1:R8 Q2:Q8 A9:R21 B22:P22 A22:A30 Q22:R30 B23:K24 N23:P24 B25:P30 A31:R83 T72:XFD75 T76:T80">
+    <cfRule type="containsText" dxfId="117" priority="143" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:P22 Q22:R23 A22:A30 B23:K23 N23:P23 B24:R30 A2:R21 A31:R83">
-    <cfRule type="containsText" dxfId="107" priority="144" operator="containsText" text="D-Peri-operative / procedural patient care">
+  <conditionalFormatting sqref="A2:R21 B22:P22 Q22:R23 A22:A30 B23:K23 N23:P23 B24:R30 A31:R83">
+    <cfRule type="containsText" dxfId="116" priority="144" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="145" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="115" priority="145" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:R83">
-    <cfRule type="containsText" dxfId="105" priority="109" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="114" priority="109" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1 Q2:Q83 N23:O24 L2:O22 L25:O83">
-    <cfRule type="containsText" dxfId="104" priority="149" operator="containsText" text="A-Undifferentiated illness patient care">
+  <conditionalFormatting sqref="L1:M1 L2:O22 Q2:Q83 N23:O24 L25:O83">
+    <cfRule type="containsText" dxfId="113" priority="148" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="149" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="148" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M23">
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="111" priority="97" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="98" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="98" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="109" priority="99" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="97" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="108" priority="103" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="103" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="107" priority="104" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="106" priority="105" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="110" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="105" priority="110" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="111" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="104" priority="111" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="112" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="103" priority="112" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="113" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="102" priority="113" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="114" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="101" priority="114" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="115" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="100" priority="115" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24 A72:D72 J72:R74 T72:XFD75 B73:D74 Q74:Q75 B75:R75 T76:T80">
-    <cfRule type="containsText" dxfId="90" priority="54" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="99" priority="54" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="98" priority="55" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24 E72:R74 B75:R75 A72:D72 T72:XFD75 B73:D74 Q74:Q75 T76:T80">
-    <cfRule type="containsText" dxfId="88" priority="53" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="97" priority="53" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:M24">
-    <cfRule type="containsText" dxfId="87" priority="48" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="96" priority="41" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="42" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="49" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="94" priority="43" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="62" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="93" priority="47" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="48" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="49" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="62" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="63" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="89" priority="63" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="64" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="88" priority="64" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="87" priority="65" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="41" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="42" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="43" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="47" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77:M77">
-    <cfRule type="containsText" dxfId="77" priority="141" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="86" priority="141" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:N75">
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",L72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",L72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L72)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q83 N23:O24 L1:M1 L2:O22 L25:O83">
-    <cfRule type="containsText" dxfId="73" priority="147" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="L2:O22 Q2:Q83 N23:O24 L25:O83 L1:M1">
+    <cfRule type="containsText" dxfId="82" priority="147" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="81" priority="40" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6672,36 +6696,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533CA44-7BCF-4D40-AC1C-780ACFD916E3}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
-    <col min="2" max="6" width="12.85546875" customWidth="1"/>
-    <col min="9" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="2" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
@@ -6710,27 +6735,27 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6754,13 +6779,13 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -6772,7 +6797,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6796,16 +6821,16 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -6817,7 +6842,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6841,13 +6866,13 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -6859,7 +6884,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6883,13 +6908,13 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -6901,7 +6926,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -6925,13 +6950,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -6943,7 +6968,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6967,16 +6992,16 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
@@ -6988,7 +7013,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7012,13 +7037,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
         <v>4</v>
@@ -7030,7 +7055,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -7054,13 +7079,13 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
         <v>4</v>
@@ -7072,7 +7097,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -7096,13 +7121,13 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
@@ -7114,7 +7139,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7138,16 +7163,16 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
         <v>4</v>
@@ -7159,7 +7184,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7183,16 +7208,16 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
         <v>4</v>
@@ -7204,7 +7229,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7228,16 +7253,16 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
@@ -7249,7 +7274,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7273,16 +7298,16 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
         <v>4</v>
@@ -7294,7 +7319,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7315,16 +7340,16 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
         <v>4</v>
@@ -7336,7 +7361,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -7360,13 +7385,13 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
         <v>4</v>
@@ -7378,7 +7403,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7402,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
         <v>4</v>
@@ -7420,7 +7445,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7444,13 +7469,13 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
         <v>4</v>
@@ -7462,7 +7487,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7486,13 +7511,13 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
         <v>4</v>
@@ -7504,7 +7529,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7525,13 +7550,13 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
         <v>4</v>
@@ -7543,7 +7568,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7567,13 +7592,13 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
         <v>4</v>
@@ -7585,7 +7610,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -7609,13 +7634,13 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
         <v>4</v>
@@ -7627,7 +7652,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -7651,13 +7676,13 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
         <v>4</v>
@@ -7669,7 +7694,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7693,16 +7718,16 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
         <v>4</v>
@@ -7714,7 +7739,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7738,16 +7763,16 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
         <v>4</v>
@@ -7759,7 +7784,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7783,16 +7808,16 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
         <v>4</v>
@@ -7804,7 +7829,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7828,16 +7853,16 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J27" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
         <v>4</v>
@@ -7849,7 +7874,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7873,16 +7898,16 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M28" t="s">
         <v>4</v>
@@ -7894,7 +7919,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7918,16 +7943,16 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
         <v>4</v>
@@ -7939,7 +7964,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -7963,16 +7988,16 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
         <v>4</v>
@@ -7984,7 +8009,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8008,16 +8033,16 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M31" t="s">
         <v>4</v>
@@ -8029,7 +8054,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8053,16 +8078,16 @@
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s">
         <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
         <v>4</v>
@@ -8074,7 +8099,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8098,16 +8123,16 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
         <v>4</v>
@@ -8119,7 +8144,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8143,16 +8168,16 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
         <v>4</v>
@@ -8164,7 +8189,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8185,16 +8210,13 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
         <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
         <v>4</v>
@@ -8206,7 +8228,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8230,16 +8252,16 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
         <v>4</v>
@@ -8251,7 +8273,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8275,16 +8297,16 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
         <v>4</v>
@@ -8296,7 +8318,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8320,16 +8342,16 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
         <v>4</v>
@@ -8341,7 +8363,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8365,13 +8387,13 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M39" t="s">
         <v>4</v>
@@ -8383,7 +8405,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8407,16 +8429,16 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s">
         <v>4</v>
@@ -8428,7 +8450,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -8452,13 +8474,13 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
         <v>4</v>
@@ -8470,7 +8492,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -8494,13 +8516,13 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M42" t="s">
         <v>4</v>
@@ -8512,7 +8534,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -8536,13 +8558,13 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
         <v>4</v>
@@ -8554,7 +8576,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8578,13 +8600,13 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
         <v>4</v>
@@ -8596,7 +8618,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -8620,13 +8642,13 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M45" t="s">
         <v>4</v>
@@ -8638,7 +8660,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8662,13 +8684,13 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
         <v>4</v>
@@ -8680,7 +8702,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8704,13 +8726,13 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M47" t="s">
         <v>4</v>
@@ -8722,7 +8744,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8746,16 +8768,16 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s">
         <v>4</v>
@@ -8767,7 +8789,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -8791,13 +8813,13 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
         <v>4</v>
@@ -8809,7 +8831,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -8833,13 +8855,13 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
         <v>4</v>
@@ -8851,7 +8873,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -8875,13 +8897,13 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
         <v>4</v>
@@ -8893,7 +8915,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8914,16 +8936,16 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
         <v>4</v>
@@ -8935,7 +8957,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8959,16 +8981,13 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
-      </c>
-      <c r="J53" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M53" t="s">
         <v>4</v>
@@ -8980,7 +8999,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -9004,16 +9023,13 @@
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
-      </c>
-      <c r="J54" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M54" t="s">
         <v>4</v>
@@ -9025,7 +9041,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9049,16 +9065,13 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J55" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M55" t="s">
         <v>4</v>
@@ -9070,7 +9083,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -9088,16 +9101,16 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" t="s">
         <v>7</v>
       </c>
       <c r="L56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M56" t="s">
         <v>4</v>
@@ -9109,7 +9122,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -9127,16 +9140,16 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
         <v>4</v>
@@ -9148,7 +9161,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -9166,16 +9179,16 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M58" t="s">
         <v>4</v>
@@ -9187,7 +9200,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -9205,16 +9218,16 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s">
         <v>4</v>
@@ -9226,7 +9239,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -9244,16 +9257,16 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s">
         <v>4</v>
@@ -9265,130 +9278,163 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I7:J7" name="Range1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I7:J7" name="Range1_2"/>
   </protectedRanges>
+  <conditionalFormatting sqref="F53:XFD55 A61:H62 A21:M60 B18:M20 B16:K16 A2:M15 B17:F17">
+    <cfRule type="containsText" dxfId="80" priority="56" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="57" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:XFD55 A61:H62 A2:M60">
+    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:XFD55 A61:H62 A21:M60 B18:K20 B16:K16 A5:M15 A1:K4 B17:F17">
+    <cfRule type="containsText" dxfId="77" priority="59" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:G62">
+    <cfRule type="containsText" dxfId="76" priority="61" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",E61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="62" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",E61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:G62">
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",E61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A20 L16:M20 I17:K17 L2:L4 M1:M4">
+    <cfRule type="containsText" dxfId="73" priority="28" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J60 I17:J17 G2:J16 L2:L60 G1:H1">
+    <cfRule type="containsText" dxfId="72" priority="30" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="31" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J60 I17:J17 G2:J16 L2:L60 G1:H1">
+    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:M17 A16:A20 I17:K17">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="26" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A54:A55">
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M15">
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
+  <conditionalFormatting sqref="G53:I55">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G53)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M15 B16:K16 L16:M17 A16:A20 B17:F17 I17:K17 B18:M20 A21:M62 O53:XFD55">
-    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="26" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M62 O53:XFD55">
-    <cfRule type="containsText" dxfId="64" priority="24" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:K16 A16:A20 L16:M20 B17:F17 I17:K17 B18:K20 A21:M62 O53:XFD55">
-    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 G2:J16 L2:L62 I17:J17 G18:J62">
-    <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="31" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="19" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="21" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G17)))</formula>
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:H57">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53:I55">
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J16 L2:L62 I17:J17 G18:J62 G1:H1">
-    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H16 G18:H62" xr:uid="{14C5111A-5F5B-4644-80A3-EEAE161ADEF9}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H16 G18:H60" xr:uid="{0BDB63B7-8841-4BCC-BC3A-2EFC4DD42446}">
+      <formula1>$A$77:$A$80</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:H17" xr:uid="{9F384FCD-7340-4F62-87CB-D2B697FF525F}">
+      <formula1>$A$84:$A$88</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53:H55" xr:uid="{C21E6844-B42B-4B1A-B45F-8A7F92985EAE}">
+      <formula1>$A$309:$A$313</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61:E62" xr:uid="{14C5111A-5F5B-4644-80A3-EEAE161ADEF9}">
       <formula1>$A$76:$A$79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:H17" xr:uid="{39E76BAC-26C8-4F12-8824-33C6489D55F2}">
-      <formula1>$A$83:$A$87</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G53:H55" xr:uid="{7FB91A5D-2B7E-4596-B1A0-A916C4D7AD85}">
-      <formula1>$A$308:$A$312</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9397,73 +9443,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBCFC34-CF59-4F52-99F4-6B4FCCBC3C97}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="9" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>148</v>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -9487,13 +9529,13 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
@@ -9529,13 +9571,13 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
@@ -9571,16 +9613,16 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
@@ -9592,7 +9634,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9616,13 +9658,13 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
         <v>8</v>
@@ -9634,7 +9676,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9658,13 +9700,13 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -9676,7 +9718,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9700,16 +9742,16 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
         <v>4</v>
@@ -9721,7 +9763,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9745,13 +9787,13 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
         <v>4</v>
@@ -9763,7 +9805,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9787,16 +9829,16 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
         <v>8</v>
@@ -9808,7 +9850,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9832,13 +9874,13 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
         <v>4</v>
@@ -9850,7 +9892,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -9874,13 +9916,13 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
         <v>4</v>
@@ -9892,7 +9934,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -9916,16 +9958,16 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
         <v>4</v>
@@ -9937,7 +9979,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9961,13 +10003,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
         <v>4</v>
@@ -9979,7 +10021,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -10003,13 +10045,13 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
         <v>4</v>
@@ -10021,7 +10063,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10045,13 +10087,13 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
         <v>4</v>
@@ -10063,7 +10105,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10087,16 +10129,16 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
         <v>4</v>
@@ -10108,7 +10150,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10132,16 +10174,16 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
         <v>4</v>
@@ -10153,7 +10195,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10177,16 +10219,16 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
         <v>4</v>
@@ -10198,7 +10240,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -10222,16 +10264,16 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
         <v>4</v>
@@ -10243,7 +10285,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10267,13 +10309,13 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
         <v>8</v>
@@ -10285,7 +10327,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -10306,16 +10348,16 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
         <v>4</v>
@@ -10327,7 +10369,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10351,13 +10393,13 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
         <v>4</v>
@@ -10369,7 +10411,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -10393,13 +10435,13 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
         <v>4</v>
@@ -10411,7 +10453,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -10435,16 +10477,16 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
         <v>8</v>
@@ -10456,7 +10498,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -10480,16 +10522,16 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
         <v>8</v>
@@ -10501,7 +10543,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10522,13 +10564,13 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
         <v>8</v>
@@ -10540,7 +10582,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10564,13 +10606,13 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M27" t="s">
         <v>4</v>
@@ -10582,7 +10624,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -10603,13 +10645,13 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M28" t="s">
         <v>8</v>
@@ -10621,7 +10663,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -10645,13 +10687,13 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
         <v>4</v>
@@ -10663,7 +10705,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -10684,13 +10726,13 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M30" t="s">
         <v>4</v>
@@ -10702,7 +10744,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -10720,16 +10762,16 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M31" t="s">
         <v>8</v>
@@ -10741,7 +10783,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10765,13 +10807,13 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
         <v>4</v>
@@ -10783,7 +10825,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -10807,16 +10849,16 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
         <v>8</v>
@@ -10828,7 +10870,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -10852,13 +10894,13 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
         <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
         <v>8</v>
@@ -10870,7 +10912,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -10894,13 +10936,13 @@
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M35" t="s">
         <v>4</v>
@@ -10912,7 +10954,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -10930,19 +10972,19 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
         <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M36" t="s">
         <v>8</v>
@@ -10954,7 +10996,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -10978,13 +11020,13 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
         <v>4</v>
@@ -10996,7 +11038,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -11020,16 +11062,16 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M38" t="s">
         <v>8</v>
@@ -11041,7 +11083,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -11065,16 +11107,16 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M39" t="s">
         <v>4</v>
@@ -11086,7 +11128,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11110,16 +11152,16 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M40" t="s">
         <v>4</v>
@@ -11131,7 +11173,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -11155,16 +11197,16 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
         <v>4</v>
@@ -11176,7 +11218,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -11200,16 +11242,16 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M42" t="s">
         <v>4</v>
@@ -11221,7 +11263,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -11245,16 +11287,16 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M43" t="s">
         <v>8</v>
@@ -11266,7 +11308,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -11290,16 +11332,16 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M44" t="s">
         <v>4</v>
@@ -11311,7 +11353,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -11335,16 +11377,16 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M45" t="s">
         <v>4</v>
@@ -11356,7 +11398,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -11380,16 +11422,16 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M46" t="s">
         <v>4</v>
@@ -11401,7 +11443,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11425,16 +11467,16 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M47" t="s">
         <v>4</v>
@@ -11446,7 +11488,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -11470,16 +11512,16 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s">
         <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s">
         <v>4</v>
@@ -11491,7 +11533,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -11515,16 +11557,16 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M49" t="s">
         <v>4</v>
@@ -11536,7 +11578,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -11560,16 +11602,16 @@
         <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M50" t="s">
         <v>4</v>
@@ -11581,7 +11623,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11602,16 +11644,13 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
-      </c>
-      <c r="J51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s">
         <v>7</v>
       </c>
       <c r="L51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M51" t="s">
         <v>4</v>
@@ -11623,7 +11662,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -11647,16 +11686,16 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M52" t="s">
         <v>4</v>
@@ -11668,7 +11707,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -11692,16 +11731,16 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J53" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M53" t="s">
         <v>4</v>
@@ -11713,7 +11752,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -11737,16 +11776,16 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M54" t="s">
         <v>4</v>
@@ -11758,7 +11797,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11782,13 +11821,13 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M55" t="s">
         <v>4</v>
@@ -11800,7 +11839,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11824,16 +11863,16 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M56" t="s">
         <v>4</v>
@@ -11845,7 +11884,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -11869,13 +11908,13 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
         <v>4</v>
@@ -11887,7 +11926,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -11911,13 +11950,13 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M58" t="s">
         <v>4</v>
@@ -11929,7 +11968,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -11953,13 +11992,13 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s">
         <v>4</v>
@@ -11971,7 +12010,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11995,13 +12034,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M60" t="s">
         <v>4</v>
@@ -12013,7 +12052,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12037,13 +12076,13 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M61" t="s">
         <v>8</v>
@@ -12055,7 +12094,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12079,16 +12118,16 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M62" t="s">
         <v>8</v>
@@ -12100,7 +12139,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -12124,16 +12163,16 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M63" t="s">
         <v>8</v>
@@ -12145,7 +12184,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -12169,13 +12208,13 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M64" t="s">
         <v>4</v>
@@ -12187,7 +12226,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -12211,13 +12250,13 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M65" t="s">
         <v>4</v>
@@ -12229,7 +12268,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -12253,13 +12292,13 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M66" t="s">
         <v>4</v>
@@ -12271,7 +12310,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -12295,28 +12334,28 @@
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J67" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M67" t="s">
         <v>4</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N80" si="1">SUM(B67:F67)</f>
+        <f t="shared" ref="N67:N81" si="1">SUM(B67:F67)</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -12340,13 +12379,13 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M68" t="s">
         <v>4</v>
@@ -12358,7 +12397,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -12382,13 +12421,13 @@
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M69" t="s">
         <v>4</v>
@@ -12400,49 +12439,49 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
-      </c>
-      <c r="J70" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M70" t="s">
         <v>4</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -12451,58 +12490,55 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="J71" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M71" t="s">
         <v>4</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -12511,28 +12547,25 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>142</v>
-      </c>
-      <c r="J72" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M72" t="s">
         <v>4</v>
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -12550,22 +12583,19 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H73" t="s">
         <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>144</v>
-      </c>
-      <c r="J73" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M73" t="s">
         <v>4</v>
@@ -12577,336 +12607,388 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
         <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M74" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s">
         <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M75" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M76" t="s">
         <v>4</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M77" t="s">
         <v>4</v>
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M78" t="s">
         <v>4</v>
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M79" t="s">
         <v>4</v>
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M80" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I12:J12" name="Range1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="W8rFgQa7DjSRhfdepS40HmLoaU4ChywM5ZJYGd+v8jBbU3LZVfsKh4CifBmWeeEj9EOveOxIPz0vRWFt+g+AGQ==" saltValue="3fY3U1JzMKURosago+KhKg==" spinCount="100000" sqref="I12:J12" name="Range1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="A72:A74">
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K8 M1:M8 L2:L8 A9:M21 B22:K22 A22:A30 L22:M30 B23:F24 I23:K24 B25:K30 A31:M80 O71:XFD74">
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="C-Acute critical illness patient care">
+  <conditionalFormatting sqref="N71:XFD74 A1:K8 A9:M21 B22:K22 B23:F24 B25:K30 A31:M81">
+    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M21 B22:K22 L22:M23 A22:A30 B23:F23 I23:K23 B24:M30 A31:M80 O71:XFD74">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="D-Peri-operative / procedural patient care">
+  <conditionalFormatting sqref="N71:XFD74 A2:M21 B22:K22 B23:F23 B24:M30 A31:M81">
+    <cfRule type="containsText" dxfId="42" priority="78" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M80 O71:XFD74">
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+  <conditionalFormatting sqref="N71:XFD74 A2:M81">
+    <cfRule type="containsText" dxfId="40" priority="69" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1 G2:J22 L2:L80 I23:J24 G25:J80">
-    <cfRule type="containsText" dxfId="32" priority="41" operator="containsText" text="A-Undifferentiated illness patient care">
+  <conditionalFormatting sqref="A73:A75">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M8 L2:L8 A22:A30 L22:M30 I23:K24">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:M23 A22:A30 I23:K23">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",A22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1 G2:J22 L2:L81 I23:J24 G25:J81">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="40" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
       <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
@@ -12937,65 +13019,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H24">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H24">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
       <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
+      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="D-Peri-operative / procedural patient care">
+      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="C-Acute critical illness patient care">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="20" operator="containsText" text="B-Chronic illness patient care">
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="B-Chronic illness patient care">
       <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="A-Undifferentiated illness patient care">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="A-Undifferentiated illness patient care">
       <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="D-Peri-operative / procedural patient care">
-      <formula>NOT(ISERROR(SEARCH("D-Peri-operative / procedural patient care",G24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="E-Non-direct clinical experience (PGY2 Only)">
-      <formula>NOT(ISERROR(SEARCH("E-Non-direct clinical experience (PGY2 Only)",G24)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77:H77">
+    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:H76">
-    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G76)))</formula>
+  <conditionalFormatting sqref="G72:I75">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="C-Acute critical illness patient care">
+      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="B-Chronic illness patient care">
+      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="A-Undifferentiated illness patient care">
+      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G72)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:I74">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="A-Undifferentiated illness patient care">
-      <formula>NOT(ISERROR(SEARCH("A-Undifferentiated illness patient care",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="B-Chronic illness patient care">
-      <formula>NOT(ISERROR(SEARCH("B-Chronic illness patient care",G71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="C-Acute critical illness patient care">
-      <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J22 L2:L80 I23:J24 G25:J80 G1:H1">
+  <conditionalFormatting sqref="G2:J22 L2:L81 I23:J24 G25:J81 G1:H1">
     <cfRule type="containsText" dxfId="1" priority="39" operator="containsText" text="C-Acute critical illness patient care">
       <formula>NOT(ISERROR(SEARCH("C-Acute critical illness patient care",G1)))</formula>
     </cfRule>
@@ -13006,14 +13090,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71:H74" xr:uid="{543A370C-4FF9-4337-83F4-0B92F15DFE96}">
-      <formula1>$A$304:$A$308</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:H75" xr:uid="{03626E15-7A2E-4CAF-BB5F-373220F1F435}">
+      <formula1>$A$309:$A$313</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H22 G25:H80" xr:uid="{C77C930E-E556-45D7-8057-CBFF42F7D6F9}">
-      <formula1>$A$76:$A$79</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H22 G25:H81" xr:uid="{E6F80811-D4FA-4697-91FE-FCBDC5C82CD8}">
+      <formula1>$A$77:$A$80</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23:H24" xr:uid="{4A1E6498-8BD1-4874-ABA0-1F558059055D}">
-      <formula1>$A$81:$A$83</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G23:H24" xr:uid="{617CB0FD-418D-401F-A15A-AB05846A6535}">
+      <formula1>$A$84:$A$88</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
